--- a/data/DFO_VOI_List_JAC.xlsx
+++ b/data/DFO_VOI_List_JAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DegagneD\Documents\International Program\Intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephfader/Documents/Projects/GFW/NPG_DFO_2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDC3DEE-7BC1-4D76-8727-1D2BEDF1CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DA73E-8CB6-FB41-8D5C-AE3BB2BA5B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C73EA156-6A4C-4BB2-8529-9427B543F0DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{C73EA156-6A4C-4BB2-8529-9427B543F0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,9 +780,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -820,7 +820,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -926,7 +926,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1068,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,19 +1079,20 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>80</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>88</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>97</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>99</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>100</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>101</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>102</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>103</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>104</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>105</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>106</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>113</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>128</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>132</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>135</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>137</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>138</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>139</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>140</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>142</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>145</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>146</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>148</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>149</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>150</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>153</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>154</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>157</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>159</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>160</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>162</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>164</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>166</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>167</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>167</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>168</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>169</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>170</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>171</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>172</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>173</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>174</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>175</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>176</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>177</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>178</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>179</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>180</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>181</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>182</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>183</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>184</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>185</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>186</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>187</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>188</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>189</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>190</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>191</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>192</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>193</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>194</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>195</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>196</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>197</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>198</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>199</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>200</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>201</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>202</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>203</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>204</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>205</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>206</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>207</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>208</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>209</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>210</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>211</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>212</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>213</v>
       </c>
@@ -4170,5 +4171,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>